--- a/Issue_List.xlsx
+++ b/Issue_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>摄像头样品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联系Sony ISP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,6 +47,26 @@
   </si>
   <si>
     <t>ISSUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买摄像头开发板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头板测试验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头效果调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头镜头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -411,10 +427,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -462,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -470,7 +486,33 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
